--- a/src/data/hr.xlsx
+++ b/src/data/hr.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\www\rect-asp-hr\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A1AB77-3965-4D36-B8C2-0AA063BB109B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D1DC15-E652-4945-8446-D5C39846B524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="24120" windowHeight="13095" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="24120" windowHeight="13095" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
-    <sheet name="gender" sheetId="2" r:id="rId2"/>
-    <sheet name="Position" sheetId="3" r:id="rId3"/>
-    <sheet name="Equipment" sheetId="5" r:id="rId4"/>
+    <sheet name="history" sheetId="6" r:id="rId2"/>
+    <sheet name="gender" sheetId="2" r:id="rId3"/>
+    <sheet name="Position" sheetId="3" r:id="rId4"/>
+    <sheet name="Equipment" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -236,6 +237,34 @@
   </si>
   <si>
     <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">description </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,28 +701,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="6" width="7.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -707,37 +736,43 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10805004</v>
       </c>
@@ -750,33 +785,36 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
+      <c r="P2" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -787,6 +825,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D6C2BB-3242-46AC-9F2D-4A8E3B844038}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8387720B-39A4-40EB-A918-65CAF9CB4AE0}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -826,20 +907,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294A517A-B573-49E7-920C-64DE3BA1DDAC}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -849,8 +936,20 @@
       <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -861,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -872,7 +971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -883,7 +982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -894,7 +993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -905,7 +1004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -916,7 +1015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -927,7 +1026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -938,7 +1037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -949,7 +1048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -967,12 +1066,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600ED7C9-175E-4AE2-B698-99232E5A9B98}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -991,7 +1090,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -1030,6 +1129,9 @@
       </c>
       <c r="M1" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
